--- a/Results/OTW/Total&NormErrors_Nocturne.xlsx
+++ b/Results/OTW/Total&NormErrors_Nocturne.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smriti/Desktop/MIT/SuperUROP/real-time-audio-sync/Results/OTW/"/>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +61,12 @@
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,6 +508,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>